--- a/alcohol/russian-empire-budget.xlsx
+++ b/alcohol/russian-empire-budget.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\alcohol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\alcohol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09886D2-6BE0-4217-8142-581353F7B4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70B1996-CBA8-4697-88D3-65FAD566DC46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="86340" yWindow="2280" windowWidth="24855" windowHeight="20280" activeTab="1" xr2:uid="{7DC3CD0D-E6C9-4725-B77C-6DA5571241DA}"/>
+    <workbookView xWindow="2370" yWindow="2640" windowWidth="27555" windowHeight="18855" activeTab="1" xr2:uid="{7DC3CD0D-E6C9-4725-B77C-6DA5571241DA}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -196,16 +196,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -215,11 +214,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,82 +540,82 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.9453125" customWidth="1"/>
+    <col min="1" max="1" width="71" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -630,114 +630,114 @@
   <dimension ref="A2:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.26171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.15625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.62890625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.62890625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.15625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.15625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.62890625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.15625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.41796875" customWidth="1"/>
-    <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="8.62890625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.15625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.62890625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.15625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="E2" s="5" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="10" t="s">
+      <c r="F2" s="15"/>
+      <c r="G2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="8" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="9"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N2" s="12"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="10" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10" t="s">
+      <c r="H3" s="13"/>
+      <c r="I3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10" t="s">
+      <c r="J3" s="13"/>
+      <c r="K3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="6" t="s">
+      <c r="L3" s="13"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="13">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>1900</v>
       </c>
       <c r="B5" s="1">
@@ -753,14 +753,14 @@
       <c r="E5" s="1">
         <v>164448</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="6">
         <f>100*E5/D5</f>
         <v>9.4690038221959139</v>
       </c>
       <c r="G5" s="1">
         <v>270279</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="6">
         <f>100*G5/D5</f>
         <v>15.562809423400038</v>
       </c>
@@ -768,7 +768,7 @@
         <f>24929 + 87826</f>
         <v>112755</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="6">
         <f>100*I5/D5</f>
         <v>6.4924932256500556</v>
       </c>
@@ -776,7 +776,7 @@
         <f>G5-I5</f>
         <v>157524</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="6">
         <f>100*K5/D5</f>
         <v>9.0703161977499835</v>
       </c>
@@ -784,13 +784,13 @@
         <f>E5+K5</f>
         <v>321972</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="7">
         <f>100*M5/D5</f>
         <v>18.539320019945897</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="13">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>1901</v>
       </c>
       <c r="B6" s="1">
@@ -806,14 +806,14 @@
       <c r="E6" s="1">
         <v>97180</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="6">
         <f t="shared" ref="F6:F22" si="1">100*E6/D6</f>
         <v>4.9496453297463088</v>
       </c>
       <c r="G6" s="1">
         <v>379079</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="6">
         <f t="shared" ref="H6:H22" si="2">100*G6/D6</f>
         <v>19.307538608303158</v>
       </c>
@@ -821,7 +821,7 @@
         <f>20560 + 124940</f>
         <v>145500</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="6">
         <f t="shared" ref="J6:J22" si="3">100*I6/D6</f>
         <v>7.4107161502169987</v>
       </c>
@@ -829,7 +829,7 @@
         <f t="shared" ref="K6:K19" si="4">G6-I6</f>
         <v>233579</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="6">
         <f t="shared" ref="L6:L22" si="5">100*K6/D6</f>
         <v>11.896822458086161</v>
       </c>
@@ -837,13 +837,13 @@
         <f t="shared" ref="M6:M19" si="6">E6+K6</f>
         <v>330759</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="7">
         <f t="shared" ref="N6:N22" si="7">100*M6/D6</f>
         <v>16.84646778783247</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="13">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>1902</v>
       </c>
       <c r="B7" s="1">
@@ -859,14 +859,14 @@
       <c r="E7" s="1">
         <v>39084</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="6">
         <f t="shared" si="1"/>
         <v>1.8544738160671719</v>
       </c>
       <c r="G7" s="1">
         <v>484558</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="6">
         <f t="shared" si="2"/>
         <v>22.991508631815488</v>
       </c>
@@ -874,7 +874,7 @@
         <f>7561+150797</f>
         <v>158358</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="6">
         <f t="shared" si="3"/>
         <v>7.5138359575469549</v>
       </c>
@@ -882,7 +882,7 @@
         <f t="shared" si="4"/>
         <v>326200</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="6">
         <f t="shared" si="5"/>
         <v>15.477672674268534</v>
       </c>
@@ -890,13 +890,13 @@
         <f t="shared" si="6"/>
         <v>365284</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="7">
         <f t="shared" si="7"/>
         <v>17.332146490335706</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="13">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>1903</v>
       </c>
       <c r="B8" s="1">
@@ -912,14 +912,14 @@
       <c r="E8" s="1">
         <v>34173</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="6">
         <f t="shared" si="1"/>
         <v>1.5464428375481551</v>
       </c>
       <c r="G8" s="1">
         <v>542288</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="6">
         <f t="shared" si="2"/>
         <v>24.540350378612178</v>
       </c>
@@ -927,7 +927,7 @@
         <f>6146+164446</f>
         <v>170592</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="6">
         <f t="shared" si="3"/>
         <v>7.7198600223280041</v>
       </c>
@@ -935,7 +935,7 @@
         <f t="shared" si="4"/>
         <v>371696</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="6">
         <f t="shared" si="5"/>
         <v>16.820490356284175</v>
       </c>
@@ -943,13 +943,13 @@
         <f t="shared" si="6"/>
         <v>405869</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="7">
         <f t="shared" si="7"/>
         <v>18.366933193832331</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="13">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>1904</v>
       </c>
       <c r="B9" s="1">
@@ -965,14 +965,14 @@
       <c r="E9" s="1">
         <v>29794</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="6">
         <f t="shared" si="1"/>
         <v>1.2395501107914999</v>
       </c>
       <c r="G9" s="1">
         <v>543484</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="6">
         <f t="shared" si="2"/>
         <v>22.611118091340789</v>
       </c>
@@ -980,7 +980,7 @@
         <f>163773+2992</f>
         <v>166765</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="6">
         <f t="shared" si="3"/>
         <v>6.938094053371298</v>
       </c>
@@ -988,7 +988,7 @@
         <f t="shared" si="4"/>
         <v>376719</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="6">
         <f t="shared" si="5"/>
         <v>15.673024037969491</v>
       </c>
@@ -996,13 +996,13 @@
         <f t="shared" si="6"/>
         <v>406513</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="7">
         <f t="shared" si="7"/>
         <v>16.912574148760992</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="13">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>1905</v>
       </c>
       <c r="B10" s="1">
@@ -1018,21 +1018,21 @@
       <c r="E10" s="1">
         <v>29771</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="6">
         <f t="shared" si="1"/>
         <v>1.0564311144530323</v>
       </c>
       <c r="G10" s="1">
         <v>609365</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="6">
         <f t="shared" si="2"/>
         <v>21.623463976980016</v>
       </c>
       <c r="I10" s="1">
         <v>169229</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="6">
         <f t="shared" si="3"/>
         <v>6.0051318755759695</v>
       </c>
@@ -1040,7 +1040,7 @@
         <f t="shared" si="4"/>
         <v>440136</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="6">
         <f t="shared" si="5"/>
         <v>15.618332101404045</v>
       </c>
@@ -1048,13 +1048,13 @@
         <f t="shared" si="6"/>
         <v>469907</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="7">
         <f t="shared" si="7"/>
         <v>16.674763215857077</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="13">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>1906</v>
       </c>
       <c r="B11" s="1">
@@ -1070,21 +1070,21 @@
       <c r="E11" s="1">
         <v>39394</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="6">
         <f t="shared" si="1"/>
         <v>1.1739145075319277</v>
       </c>
       <c r="G11" s="1">
         <v>697504</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="6">
         <f t="shared" si="2"/>
         <v>20.785146587336897</v>
       </c>
       <c r="I11" s="1">
         <v>178201</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="6">
         <f t="shared" si="3"/>
         <v>5.3102690551022249</v>
       </c>
@@ -1092,7 +1092,7 @@
         <f t="shared" si="4"/>
         <v>519303</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="6">
         <f t="shared" si="5"/>
         <v>15.474877532234672</v>
       </c>
@@ -1100,13 +1100,13 @@
         <f t="shared" si="6"/>
         <v>558697</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="7">
         <f t="shared" si="7"/>
         <v>16.648792039766601</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="13">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>1907</v>
       </c>
       <c r="B12" s="1">
@@ -1122,21 +1122,21 @@
       <c r="E12" s="1">
         <v>41117</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="6">
         <f t="shared" si="1"/>
         <v>1.6542634791876298</v>
       </c>
       <c r="G12" s="1">
         <v>707142</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="6">
         <f t="shared" si="2"/>
         <v>28.450499433317091</v>
       </c>
       <c r="I12" s="1">
         <v>221342</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="6">
         <f t="shared" si="3"/>
         <v>8.9052700102232247</v>
       </c>
@@ -1144,7 +1144,7 @@
         <f t="shared" si="4"/>
         <v>485800</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="6">
         <f t="shared" si="5"/>
         <v>19.545229423093868</v>
       </c>
@@ -1152,13 +1152,13 @@
         <f t="shared" si="6"/>
         <v>526917</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="7">
         <f t="shared" si="7"/>
         <v>21.199492902281499</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="13">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>1908</v>
       </c>
       <c r="B13" s="1">
@@ -1174,21 +1174,21 @@
       <c r="E13" s="1">
         <v>39054</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="6">
         <f t="shared" si="1"/>
         <v>1.4913688944150232</v>
       </c>
       <c r="G13" s="1">
         <v>709003</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="6">
         <f t="shared" si="2"/>
         <v>27.074948027012205</v>
       </c>
       <c r="I13" s="1">
         <v>212123</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="6">
         <f t="shared" si="3"/>
         <v>8.1004159366517641</v>
       </c>
@@ -1196,7 +1196,7 @@
         <f t="shared" si="4"/>
         <v>496880</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="6">
         <f t="shared" si="5"/>
         <v>18.974532090360444</v>
       </c>
@@ -1204,13 +1204,13 @@
         <f t="shared" si="6"/>
         <v>535934</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="7">
         <f t="shared" si="7"/>
         <v>20.465900984775466</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="13">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>1909</v>
       </c>
       <c r="B14" s="1">
@@ -1226,21 +1226,21 @@
       <c r="E14" s="1">
         <v>40161</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="6">
         <f t="shared" si="1"/>
         <v>1.4934819836487132</v>
       </c>
       <c r="G14" s="1">
         <v>718884</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="6">
         <f t="shared" si="2"/>
         <v>26.733405600789858</v>
       </c>
       <c r="I14" s="1">
         <v>196326</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="6">
         <f t="shared" si="3"/>
         <v>7.3008476861088436</v>
       </c>
@@ -1248,7 +1248,7 @@
         <f t="shared" si="4"/>
         <v>522558</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="6">
         <f t="shared" si="5"/>
         <v>19.432557914681016</v>
       </c>
@@ -1256,13 +1256,13 @@
         <f t="shared" si="6"/>
         <v>562719</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="7">
         <f t="shared" si="7"/>
         <v>20.92603989832973</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="13">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>1910</v>
       </c>
       <c r="B15" s="1">
@@ -1278,21 +1278,21 @@
       <c r="E15" s="1">
         <v>44015</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="6">
         <f t="shared" si="1"/>
         <v>1.5690301992417037</v>
       </c>
       <c r="G15" s="1">
         <v>767033</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="6">
         <f t="shared" si="2"/>
         <v>27.342904482902686</v>
       </c>
       <c r="I15" s="1">
         <v>188288</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="6">
         <f t="shared" si="3"/>
         <v>6.712019951262568</v>
       </c>
@@ -1300,7 +1300,7 @@
         <f t="shared" si="4"/>
         <v>578745</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="6">
         <f t="shared" si="5"/>
         <v>20.63088453164012</v>
       </c>
@@ -1308,13 +1308,13 @@
         <f t="shared" si="6"/>
         <v>622760</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="7">
         <f t="shared" si="7"/>
         <v>22.199914730881822</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="13">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
         <v>1911</v>
       </c>
       <c r="B16" s="1">
@@ -1330,21 +1330,21 @@
       <c r="E16" s="1">
         <v>47664</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="6">
         <f t="shared" si="1"/>
         <v>1.6133492601251509</v>
       </c>
       <c r="G16" s="1">
         <v>783132</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="6">
         <f t="shared" si="2"/>
         <v>26.507750771658479</v>
       </c>
       <c r="I16" s="1">
         <v>187803</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="6">
         <f t="shared" si="3"/>
         <v>6.3568276078231731</v>
       </c>
@@ -1352,7 +1352,7 @@
         <f t="shared" si="4"/>
         <v>595329</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="6">
         <f t="shared" si="5"/>
         <v>20.150923163835305</v>
       </c>
@@ -1360,13 +1360,13 @@
         <f t="shared" si="6"/>
         <v>642993</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N16" s="7">
         <f t="shared" si="7"/>
         <v>21.764272423960456</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="13">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
         <v>1912</v>
       </c>
       <c r="B17" s="1">
@@ -1382,21 +1382,21 @@
       <c r="E17" s="1">
         <v>48899</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="6">
         <f t="shared" si="1"/>
         <v>1.5734635891792401</v>
       </c>
       <c r="G17" s="1">
         <v>824692</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="6">
         <f t="shared" si="2"/>
         <v>26.536796954690402</v>
       </c>
       <c r="I17" s="1">
         <v>198772</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="6">
         <f t="shared" si="3"/>
         <v>6.3960511370035364</v>
       </c>
@@ -1404,7 +1404,7 @@
         <f t="shared" si="4"/>
         <v>625920</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="6">
         <f t="shared" si="5"/>
         <v>20.140745817686863</v>
       </c>
@@ -1412,13 +1412,13 @@
         <f t="shared" si="6"/>
         <v>674819</v>
       </c>
-      <c r="N17" s="12">
+      <c r="N17" s="7">
         <f t="shared" si="7"/>
         <v>21.714209406866104</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="13">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
         <v>1913</v>
       </c>
       <c r="B18" s="1">
@@ -1434,21 +1434,21 @@
       <c r="E18" s="1">
         <v>53729</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="6">
         <f t="shared" si="1"/>
         <v>1.5658930317483217</v>
       </c>
       <c r="G18" s="1">
         <v>899299</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="6">
         <f t="shared" si="2"/>
         <v>26.209422054351169</v>
       </c>
       <c r="I18" s="1">
         <v>234995</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="6">
         <f t="shared" si="3"/>
         <v>6.8487601294588929</v>
       </c>
@@ -1456,7 +1456,7 @@
         <f t="shared" si="4"/>
         <v>664304</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="6">
         <f t="shared" si="5"/>
         <v>19.360661924892277</v>
       </c>
@@ -1464,13 +1464,13 @@
         <f t="shared" si="6"/>
         <v>718033</v>
       </c>
-      <c r="N18" s="12">
+      <c r="N18" s="7">
         <f t="shared" si="7"/>
         <v>20.926554956640597</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="13">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
         <v>1914</v>
       </c>
       <c r="B19" s="1">
@@ -1486,21 +1486,21 @@
       <c r="E19" s="1">
         <v>41300</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="6">
         <f t="shared" si="1"/>
         <v>0.91743200784770895</v>
       </c>
       <c r="G19" s="1">
         <v>503900</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="6">
         <f t="shared" si="2"/>
         <v>11.193559049744808</v>
       </c>
       <c r="I19" s="1">
         <v>208400</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="6">
         <f t="shared" si="3"/>
         <v>4.6293663543695533</v>
       </c>
@@ -1508,7 +1508,7 @@
         <f t="shared" si="4"/>
         <v>295500</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="6">
         <f t="shared" si="5"/>
         <v>6.5641926953752545</v>
       </c>
@@ -1516,25 +1516,25 @@
         <f t="shared" si="6"/>
         <v>336800</v>
       </c>
-      <c r="N19" s="12">
+      <c r="N19" s="7">
         <f t="shared" si="7"/>
         <v>7.4816247032229635</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="14"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="13" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="1">
@@ -1553,7 +1553,7 @@
         <f>SUM(E5:E18)</f>
         <v>748483</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="6">
         <f t="shared" si="1"/>
         <v>2.0402045822427461</v>
       </c>
@@ -1561,7 +1561,7 @@
         <f>SUM(G5:G18)</f>
         <v>8935742</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="6">
         <f t="shared" si="2"/>
         <v>24.356921632340296</v>
       </c>
@@ -1569,7 +1569,7 @@
         <f>SUM(I5:I18)</f>
         <v>2541049</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J21" s="6">
         <f t="shared" si="3"/>
         <v>6.9263561276653558</v>
       </c>
@@ -1577,7 +1577,7 @@
         <f>SUM(K5:K18)</f>
         <v>6394693</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L21" s="6">
         <f t="shared" si="5"/>
         <v>17.430565504674941</v>
       </c>
@@ -1585,13 +1585,13 @@
         <f>SUM(M5:M18)</f>
         <v>7143176</v>
       </c>
-      <c r="N21" s="12">
+      <c r="N21" s="7">
         <f t="shared" si="7"/>
         <v>19.470770086917689</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="13" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="1">
@@ -1610,7 +1610,7 @@
         <f>SUM(E5:E19)</f>
         <v>789783</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="6">
         <f t="shared" si="1"/>
         <v>1.9174907668088752</v>
       </c>
@@ -1618,7 +1618,7 @@
         <f>SUM(G5:G19)</f>
         <v>9439642</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="6">
         <f t="shared" si="2"/>
         <v>22.918227382687729</v>
       </c>
@@ -1626,7 +1626,7 @@
         <f>SUM(I5:I19)</f>
         <v>2749449</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22" s="6">
         <f t="shared" si="3"/>
         <v>6.6753058388340785</v>
       </c>
@@ -1634,7 +1634,7 @@
         <f>SUM(K5:K19)</f>
         <v>6690193</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="6">
         <f t="shared" si="5"/>
         <v>16.242921543853651</v>
       </c>
@@ -1642,7 +1642,7 @@
         <f>SUM(M5:M19)</f>
         <v>7479976</v>
       </c>
-      <c r="N22" s="12">
+      <c r="N22" s="7">
         <f t="shared" si="7"/>
         <v>18.160412310662526</v>
       </c>
